--- a/dev/_downloads/a05c9736522987ae5a1cc5751558fd65/Audit-AValRopRPMD.xlsx
+++ b/dev/_downloads/a05c9736522987ae5a1cc5751558fd65/Audit-AValRopRPMD.xlsx
@@ -9000,17 +9000,17 @@
     <row r="15">
       <c r="D15" t="inlineStr">
         <is>
-          <t>0.6.0rc0</t>
+          <t>0.6.0</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>89ce0930fc741458f9939b4377801596f197c637</t>
+          <t>330b332911b3f1ba02127bf804b8663d42b0628c</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>2021-02-25 13:13:12.525792</t>
+          <t>2021-02-26 11:44:36.613102</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
@@ -9092,17 +9092,17 @@
     <row r="16">
       <c r="D16" t="inlineStr">
         <is>
-          <t>0.6.0rc0</t>
+          <t>0.6.0</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>89ce0930fc741458f9939b4377801596f197c637</t>
+          <t>330b332911b3f1ba02127bf804b8663d42b0628c</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>2021-02-25 13:13:12.525792</t>
+          <t>2021-02-26 11:44:36.613102</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
@@ -9184,17 +9184,17 @@
     <row r="17">
       <c r="D17" t="inlineStr">
         <is>
-          <t>0.6.0rc0</t>
+          <t>0.6.0</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>89ce0930fc741458f9939b4377801596f197c637</t>
+          <t>330b332911b3f1ba02127bf804b8663d42b0628c</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>2021-02-25 13:13:12.525792</t>
+          <t>2021-02-26 11:44:36.613102</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
@@ -9276,17 +9276,17 @@
     <row r="18">
       <c r="D18" t="inlineStr">
         <is>
-          <t>0.6.0rc0</t>
+          <t>0.6.0</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>89ce0930fc741458f9939b4377801596f197c637</t>
+          <t>330b332911b3f1ba02127bf804b8663d42b0628c</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>2021-02-25 13:13:12.525792</t>
+          <t>2021-02-26 11:44:36.613102</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
@@ -9368,17 +9368,17 @@
     <row r="19">
       <c r="D19" t="inlineStr">
         <is>
-          <t>0.6.0rc0</t>
+          <t>0.6.0</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>89ce0930fc741458f9939b4377801596f197c637</t>
+          <t>330b332911b3f1ba02127bf804b8663d42b0628c</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>2021-02-25 13:13:12.525792</t>
+          <t>2021-02-26 11:44:36.613102</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
@@ -9460,17 +9460,17 @@
     <row r="20">
       <c r="D20" t="inlineStr">
         <is>
-          <t>0.6.0rc0</t>
+          <t>0.6.0</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>89ce0930fc741458f9939b4377801596f197c637</t>
+          <t>330b332911b3f1ba02127bf804b8663d42b0628c</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>2021-02-25 13:13:12.525792</t>
+          <t>2021-02-26 11:44:36.613102</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
@@ -9552,17 +9552,17 @@
     <row r="21">
       <c r="D21" t="inlineStr">
         <is>
-          <t>0.6.0rc0</t>
+          <t>0.6.0</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>89ce0930fc741458f9939b4377801596f197c637</t>
+          <t>330b332911b3f1ba02127bf804b8663d42b0628c</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>2021-02-25 13:13:12.525792</t>
+          <t>2021-02-26 11:44:36.613102</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
@@ -9644,17 +9644,17 @@
     <row r="22">
       <c r="D22" t="inlineStr">
         <is>
-          <t>0.6.0rc0</t>
+          <t>0.6.0</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>89ce0930fc741458f9939b4377801596f197c637</t>
+          <t>330b332911b3f1ba02127bf804b8663d42b0628c</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>2021-02-25 13:13:12.525792</t>
+          <t>2021-02-26 11:44:36.613102</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
@@ -9736,17 +9736,17 @@
     <row r="23">
       <c r="D23" t="inlineStr">
         <is>
-          <t>0.6.0rc0</t>
+          <t>0.6.0</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>89ce0930fc741458f9939b4377801596f197c637</t>
+          <t>330b332911b3f1ba02127bf804b8663d42b0628c</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>2021-02-25 13:13:12.525792</t>
+          <t>2021-02-26 11:44:36.613102</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
@@ -9828,17 +9828,17 @@
     <row r="24">
       <c r="D24" t="inlineStr">
         <is>
-          <t>0.6.0rc0</t>
+          <t>0.6.0</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>89ce0930fc741458f9939b4377801596f197c637</t>
+          <t>330b332911b3f1ba02127bf804b8663d42b0628c</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>2021-02-25 13:13:12.525792</t>
+          <t>2021-02-26 11:44:36.613102</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
@@ -9920,17 +9920,17 @@
     <row r="25">
       <c r="D25" t="inlineStr">
         <is>
-          <t>0.6.0rc0</t>
+          <t>0.6.0</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>89ce0930fc741458f9939b4377801596f197c637</t>
+          <t>330b332911b3f1ba02127bf804b8663d42b0628c</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>2021-02-25 13:13:12.525792</t>
+          <t>2021-02-26 11:44:36.613102</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
@@ -10012,17 +10012,17 @@
     <row r="26">
       <c r="D26" t="inlineStr">
         <is>
-          <t>0.6.0rc0</t>
+          <t>0.6.0</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>89ce0930fc741458f9939b4377801596f197c637</t>
+          <t>330b332911b3f1ba02127bf804b8663d42b0628c</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>2021-02-25 13:13:12.525792</t>
+          <t>2021-02-26 11:44:36.613102</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
@@ -10104,17 +10104,17 @@
     <row r="27">
       <c r="D27" t="inlineStr">
         <is>
-          <t>0.6.0rc0</t>
+          <t>0.6.0</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>89ce0930fc741458f9939b4377801596f197c637</t>
+          <t>330b332911b3f1ba02127bf804b8663d42b0628c</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>2021-02-25 13:13:12.525792</t>
+          <t>2021-02-26 11:44:36.613102</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
@@ -10196,17 +10196,17 @@
     <row r="28">
       <c r="D28" t="inlineStr">
         <is>
-          <t>0.6.0rc0</t>
+          <t>0.6.0</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>89ce0930fc741458f9939b4377801596f197c637</t>
+          <t>330b332911b3f1ba02127bf804b8663d42b0628c</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>2021-02-25 13:13:12.525792</t>
+          <t>2021-02-26 11:44:36.613102</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
@@ -10288,17 +10288,17 @@
     <row r="29">
       <c r="D29" t="inlineStr">
         <is>
-          <t>0.6.0rc0</t>
+          <t>0.6.0</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>89ce0930fc741458f9939b4377801596f197c637</t>
+          <t>330b332911b3f1ba02127bf804b8663d42b0628c</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>2021-02-25 13:13:12.525792</t>
+          <t>2021-02-26 11:44:36.613102</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
@@ -10380,17 +10380,17 @@
     <row r="30">
       <c r="D30" t="inlineStr">
         <is>
-          <t>0.6.0rc0</t>
+          <t>0.6.0</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>89ce0930fc741458f9939b4377801596f197c637</t>
+          <t>330b332911b3f1ba02127bf804b8663d42b0628c</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>2021-02-25 13:13:12.525792</t>
+          <t>2021-02-26 11:44:36.613102</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
@@ -10653,17 +10653,17 @@
     <row r="3">
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.6.0rc0</t>
+          <t>0.6.0</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>89ce0930fc741458f9939b4377801596f197c637</t>
+          <t>330b332911b3f1ba02127bf804b8663d42b0628c</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2021-02-25 13:13:12.525792</t>
+          <t>2021-02-26 11:44:36.613102</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -10745,17 +10745,17 @@
     <row r="4">
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.6.0rc0</t>
+          <t>0.6.0</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>89ce0930fc741458f9939b4377801596f197c637</t>
+          <t>330b332911b3f1ba02127bf804b8663d42b0628c</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2021-02-25 13:13:12.525792</t>
+          <t>2021-02-26 11:44:36.613102</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -10837,17 +10837,17 @@
     <row r="5">
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.6.0rc0</t>
+          <t>0.6.0</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>89ce0930fc741458f9939b4377801596f197c637</t>
+          <t>330b332911b3f1ba02127bf804b8663d42b0628c</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2021-02-25 13:13:12.525792</t>
+          <t>2021-02-26 11:44:36.613102</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -10929,17 +10929,17 @@
     <row r="6">
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.6.0rc0</t>
+          <t>0.6.0</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>89ce0930fc741458f9939b4377801596f197c637</t>
+          <t>330b332911b3f1ba02127bf804b8663d42b0628c</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2021-02-25 13:13:12.525792</t>
+          <t>2021-02-26 11:44:36.613102</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -11021,17 +11021,17 @@
     <row r="7">
       <c r="D7" t="inlineStr">
         <is>
-          <t>0.6.0rc0</t>
+          <t>0.6.0</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>89ce0930fc741458f9939b4377801596f197c637</t>
+          <t>330b332911b3f1ba02127bf804b8663d42b0628c</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2021-02-25 13:13:12.525792</t>
+          <t>2021-02-26 11:44:36.613102</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
@@ -11113,17 +11113,17 @@
     <row r="8">
       <c r="D8" t="inlineStr">
         <is>
-          <t>0.6.0rc0</t>
+          <t>0.6.0</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>89ce0930fc741458f9939b4377801596f197c637</t>
+          <t>330b332911b3f1ba02127bf804b8663d42b0628c</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2021-02-25 13:13:12.525792</t>
+          <t>2021-02-26 11:44:36.613102</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
@@ -11205,17 +11205,17 @@
     <row r="9">
       <c r="D9" t="inlineStr">
         <is>
-          <t>0.6.0rc0</t>
+          <t>0.6.0</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>89ce0930fc741458f9939b4377801596f197c637</t>
+          <t>330b332911b3f1ba02127bf804b8663d42b0628c</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2021-02-25 13:13:12.525792</t>
+          <t>2021-02-26 11:44:36.613102</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
@@ -11297,17 +11297,17 @@
     <row r="10">
       <c r="D10" t="inlineStr">
         <is>
-          <t>0.6.0rc0</t>
+          <t>0.6.0</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>89ce0930fc741458f9939b4377801596f197c637</t>
+          <t>330b332911b3f1ba02127bf804b8663d42b0628c</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>2021-02-25 13:13:12.525792</t>
+          <t>2021-02-26 11:44:36.613102</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
@@ -11389,17 +11389,17 @@
     <row r="11">
       <c r="D11" t="inlineStr">
         <is>
-          <t>0.6.0rc0</t>
+          <t>0.6.0</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>89ce0930fc741458f9939b4377801596f197c637</t>
+          <t>330b332911b3f1ba02127bf804b8663d42b0628c</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>2021-02-25 13:13:12.525792</t>
+          <t>2021-02-26 11:44:36.613102</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
@@ -11481,17 +11481,17 @@
     <row r="12">
       <c r="D12" t="inlineStr">
         <is>
-          <t>0.6.0rc0</t>
+          <t>0.6.0</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>89ce0930fc741458f9939b4377801596f197c637</t>
+          <t>330b332911b3f1ba02127bf804b8663d42b0628c</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>2021-02-25 13:13:12.525792</t>
+          <t>2021-02-26 11:44:36.613102</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
@@ -11573,17 +11573,17 @@
     <row r="13">
       <c r="D13" t="inlineStr">
         <is>
-          <t>0.6.0rc0</t>
+          <t>0.6.0</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>89ce0930fc741458f9939b4377801596f197c637</t>
+          <t>330b332911b3f1ba02127bf804b8663d42b0628c</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>2021-02-25 13:13:12.525792</t>
+          <t>2021-02-26 11:44:36.613102</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
@@ -11665,17 +11665,17 @@
     <row r="14">
       <c r="D14" t="inlineStr">
         <is>
-          <t>0.6.0rc0</t>
+          <t>0.6.0</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>89ce0930fc741458f9939b4377801596f197c637</t>
+          <t>330b332911b3f1ba02127bf804b8663d42b0628c</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>2021-02-25 13:13:12.525792</t>
+          <t>2021-02-26 11:44:36.613102</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
@@ -11757,17 +11757,17 @@
     <row r="15">
       <c r="D15" t="inlineStr">
         <is>
-          <t>0.6.0rc0</t>
+          <t>0.6.0</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>89ce0930fc741458f9939b4377801596f197c637</t>
+          <t>330b332911b3f1ba02127bf804b8663d42b0628c</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>2021-02-25 13:13:12.525792</t>
+          <t>2021-02-26 11:44:36.613102</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
@@ -11849,17 +11849,17 @@
     <row r="16">
       <c r="D16" t="inlineStr">
         <is>
-          <t>0.6.0rc0</t>
+          <t>0.6.0</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>89ce0930fc741458f9939b4377801596f197c637</t>
+          <t>330b332911b3f1ba02127bf804b8663d42b0628c</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>2021-02-25 13:13:12.525792</t>
+          <t>2021-02-26 11:44:36.613102</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
@@ -11941,17 +11941,17 @@
     <row r="17">
       <c r="D17" t="inlineStr">
         <is>
-          <t>0.6.0rc0</t>
+          <t>0.6.0</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>89ce0930fc741458f9939b4377801596f197c637</t>
+          <t>330b332911b3f1ba02127bf804b8663d42b0628c</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>2021-02-25 13:13:12.525792</t>
+          <t>2021-02-26 11:44:36.613102</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
@@ -12033,17 +12033,17 @@
     <row r="18">
       <c r="D18" t="inlineStr">
         <is>
-          <t>0.6.0rc0</t>
+          <t>0.6.0</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>89ce0930fc741458f9939b4377801596f197c637</t>
+          <t>330b332911b3f1ba02127bf804b8663d42b0628c</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>2021-02-25 13:13:12.525792</t>
+          <t>2021-02-26 11:44:36.613102</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">

--- a/dev/_downloads/a05c9736522987ae5a1cc5751558fd65/Audit-AValRopRPMD.xlsx
+++ b/dev/_downloads/a05c9736522987ae5a1cc5751558fd65/Audit-AValRopRPMD.xlsx
@@ -10478,12 +10478,12 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>440fba5ef2439861d22d0b2289698e849a985c5d</t>
+          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>2021-03-25 11:13:29.092665</t>
+          <t>2021-03-25 11:21:54.641955</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
@@ -10570,12 +10570,12 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>440fba5ef2439861d22d0b2289698e849a985c5d</t>
+          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>2021-03-25 11:13:29.092665</t>
+          <t>2021-03-25 11:21:54.641955</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
@@ -10662,12 +10662,12 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>440fba5ef2439861d22d0b2289698e849a985c5d</t>
+          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>2021-03-25 11:13:29.092665</t>
+          <t>2021-03-25 11:21:54.641955</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
@@ -10754,12 +10754,12 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>440fba5ef2439861d22d0b2289698e849a985c5d</t>
+          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>2021-03-25 11:13:29.092665</t>
+          <t>2021-03-25 11:21:54.641955</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
@@ -10846,12 +10846,12 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>440fba5ef2439861d22d0b2289698e849a985c5d</t>
+          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>2021-03-25 11:13:29.092665</t>
+          <t>2021-03-25 11:21:54.641955</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
@@ -10938,12 +10938,12 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>440fba5ef2439861d22d0b2289698e849a985c5d</t>
+          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>2021-03-25 11:13:29.092665</t>
+          <t>2021-03-25 11:21:54.641955</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
@@ -11030,12 +11030,12 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>440fba5ef2439861d22d0b2289698e849a985c5d</t>
+          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>2021-03-25 11:13:29.092665</t>
+          <t>2021-03-25 11:21:54.641955</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
@@ -11122,12 +11122,12 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>440fba5ef2439861d22d0b2289698e849a985c5d</t>
+          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>2021-03-25 11:13:29.092665</t>
+          <t>2021-03-25 11:21:54.641955</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
@@ -11214,12 +11214,12 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>440fba5ef2439861d22d0b2289698e849a985c5d</t>
+          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>2021-03-25 11:13:29.092665</t>
+          <t>2021-03-25 11:21:54.641955</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
@@ -11306,12 +11306,12 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>440fba5ef2439861d22d0b2289698e849a985c5d</t>
+          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>2021-03-25 11:13:29.092665</t>
+          <t>2021-03-25 11:21:54.641955</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
@@ -11398,12 +11398,12 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>440fba5ef2439861d22d0b2289698e849a985c5d</t>
+          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>2021-03-25 11:13:29.092665</t>
+          <t>2021-03-25 11:21:54.641955</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
@@ -11490,12 +11490,12 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>440fba5ef2439861d22d0b2289698e849a985c5d</t>
+          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>2021-03-25 11:13:29.092665</t>
+          <t>2021-03-25 11:21:54.641955</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
@@ -11582,12 +11582,12 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>440fba5ef2439861d22d0b2289698e849a985c5d</t>
+          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>2021-03-25 11:13:29.092665</t>
+          <t>2021-03-25 11:21:54.641955</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
@@ -11674,12 +11674,12 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>440fba5ef2439861d22d0b2289698e849a985c5d</t>
+          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>2021-03-25 11:13:29.092665</t>
+          <t>2021-03-25 11:21:54.641955</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
@@ -11766,12 +11766,12 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>440fba5ef2439861d22d0b2289698e849a985c5d</t>
+          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>2021-03-25 11:13:29.092665</t>
+          <t>2021-03-25 11:21:54.641955</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
@@ -11858,12 +11858,12 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>440fba5ef2439861d22d0b2289698e849a985c5d</t>
+          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>2021-03-25 11:13:29.092665</t>
+          <t>2021-03-25 11:21:54.641955</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
@@ -12131,12 +12131,12 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>440fba5ef2439861d22d0b2289698e849a985c5d</t>
+          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2021-03-25 11:13:29.092665</t>
+          <t>2021-03-25 11:21:54.641955</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -12223,12 +12223,12 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>440fba5ef2439861d22d0b2289698e849a985c5d</t>
+          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2021-03-25 11:13:29.092665</t>
+          <t>2021-03-25 11:21:54.641955</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -12315,12 +12315,12 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>440fba5ef2439861d22d0b2289698e849a985c5d</t>
+          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2021-03-25 11:13:29.092665</t>
+          <t>2021-03-25 11:21:54.641955</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -12407,12 +12407,12 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>440fba5ef2439861d22d0b2289698e849a985c5d</t>
+          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2021-03-25 11:13:29.092665</t>
+          <t>2021-03-25 11:21:54.641955</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -12499,12 +12499,12 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>440fba5ef2439861d22d0b2289698e849a985c5d</t>
+          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2021-03-25 11:13:29.092665</t>
+          <t>2021-03-25 11:21:54.641955</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
@@ -12591,12 +12591,12 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>440fba5ef2439861d22d0b2289698e849a985c5d</t>
+          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2021-03-25 11:13:29.092665</t>
+          <t>2021-03-25 11:21:54.641955</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
@@ -12683,12 +12683,12 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>440fba5ef2439861d22d0b2289698e849a985c5d</t>
+          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2021-03-25 11:13:29.092665</t>
+          <t>2021-03-25 11:21:54.641955</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
@@ -12775,12 +12775,12 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>440fba5ef2439861d22d0b2289698e849a985c5d</t>
+          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>2021-03-25 11:13:29.092665</t>
+          <t>2021-03-25 11:21:54.641955</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
@@ -12867,12 +12867,12 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>440fba5ef2439861d22d0b2289698e849a985c5d</t>
+          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>2021-03-25 11:13:29.092665</t>
+          <t>2021-03-25 11:21:54.641955</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
@@ -12959,12 +12959,12 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>440fba5ef2439861d22d0b2289698e849a985c5d</t>
+          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>2021-03-25 11:13:29.092665</t>
+          <t>2021-03-25 11:21:54.641955</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
@@ -13051,12 +13051,12 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>440fba5ef2439861d22d0b2289698e849a985c5d</t>
+          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>2021-03-25 11:13:29.092665</t>
+          <t>2021-03-25 11:21:54.641955</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
@@ -13143,12 +13143,12 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>440fba5ef2439861d22d0b2289698e849a985c5d</t>
+          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>2021-03-25 11:13:29.092665</t>
+          <t>2021-03-25 11:21:54.641955</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
@@ -13235,12 +13235,12 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>440fba5ef2439861d22d0b2289698e849a985c5d</t>
+          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>2021-03-25 11:13:29.092665</t>
+          <t>2021-03-25 11:21:54.641955</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
@@ -13327,12 +13327,12 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>440fba5ef2439861d22d0b2289698e849a985c5d</t>
+          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>2021-03-25 11:13:29.092665</t>
+          <t>2021-03-25 11:21:54.641955</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
@@ -13419,12 +13419,12 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>440fba5ef2439861d22d0b2289698e849a985c5d</t>
+          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>2021-03-25 11:13:29.092665</t>
+          <t>2021-03-25 11:21:54.641955</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
@@ -13511,12 +13511,12 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>440fba5ef2439861d22d0b2289698e849a985c5d</t>
+          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>2021-03-25 11:13:29.092665</t>
+          <t>2021-03-25 11:21:54.641955</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">

--- a/dev/_downloads/a05c9736522987ae5a1cc5751558fd65/Audit-AValRopRPMD.xlsx
+++ b/dev/_downloads/a05c9736522987ae5a1cc5751558fd65/Audit-AValRopRPMD.xlsx
@@ -10478,12 +10478,12 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
+          <t>5d026f4756f03f9cb797de5a8f0c3c6d2b349ccb</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>2021-03-25 11:21:54.641955</t>
+          <t>2021-03-25 11:28:00.762536</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
@@ -10570,12 +10570,12 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
+          <t>5d026f4756f03f9cb797de5a8f0c3c6d2b349ccb</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>2021-03-25 11:21:54.641955</t>
+          <t>2021-03-25 11:28:00.762536</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
@@ -10662,12 +10662,12 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
+          <t>5d026f4756f03f9cb797de5a8f0c3c6d2b349ccb</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>2021-03-25 11:21:54.641955</t>
+          <t>2021-03-25 11:28:00.762536</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
@@ -10754,12 +10754,12 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
+          <t>5d026f4756f03f9cb797de5a8f0c3c6d2b349ccb</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>2021-03-25 11:21:54.641955</t>
+          <t>2021-03-25 11:28:00.762536</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
@@ -10846,12 +10846,12 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
+          <t>5d026f4756f03f9cb797de5a8f0c3c6d2b349ccb</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>2021-03-25 11:21:54.641955</t>
+          <t>2021-03-25 11:28:00.762536</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
@@ -10938,12 +10938,12 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
+          <t>5d026f4756f03f9cb797de5a8f0c3c6d2b349ccb</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>2021-03-25 11:21:54.641955</t>
+          <t>2021-03-25 11:28:00.762536</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
@@ -11030,12 +11030,12 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
+          <t>5d026f4756f03f9cb797de5a8f0c3c6d2b349ccb</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>2021-03-25 11:21:54.641955</t>
+          <t>2021-03-25 11:28:00.762536</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
@@ -11122,12 +11122,12 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
+          <t>5d026f4756f03f9cb797de5a8f0c3c6d2b349ccb</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>2021-03-25 11:21:54.641955</t>
+          <t>2021-03-25 11:28:00.762536</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
@@ -11214,12 +11214,12 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
+          <t>5d026f4756f03f9cb797de5a8f0c3c6d2b349ccb</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>2021-03-25 11:21:54.641955</t>
+          <t>2021-03-25 11:28:00.762536</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
@@ -11306,12 +11306,12 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
+          <t>5d026f4756f03f9cb797de5a8f0c3c6d2b349ccb</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>2021-03-25 11:21:54.641955</t>
+          <t>2021-03-25 11:28:00.762536</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
@@ -11398,12 +11398,12 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
+          <t>5d026f4756f03f9cb797de5a8f0c3c6d2b349ccb</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>2021-03-25 11:21:54.641955</t>
+          <t>2021-03-25 11:28:00.762536</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
@@ -11490,12 +11490,12 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
+          <t>5d026f4756f03f9cb797de5a8f0c3c6d2b349ccb</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>2021-03-25 11:21:54.641955</t>
+          <t>2021-03-25 11:28:00.762536</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
@@ -11582,12 +11582,12 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
+          <t>5d026f4756f03f9cb797de5a8f0c3c6d2b349ccb</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>2021-03-25 11:21:54.641955</t>
+          <t>2021-03-25 11:28:00.762536</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
@@ -11674,12 +11674,12 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
+          <t>5d026f4756f03f9cb797de5a8f0c3c6d2b349ccb</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>2021-03-25 11:21:54.641955</t>
+          <t>2021-03-25 11:28:00.762536</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
@@ -11766,12 +11766,12 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
+          <t>5d026f4756f03f9cb797de5a8f0c3c6d2b349ccb</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>2021-03-25 11:21:54.641955</t>
+          <t>2021-03-25 11:28:00.762536</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
@@ -11858,12 +11858,12 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
+          <t>5d026f4756f03f9cb797de5a8f0c3c6d2b349ccb</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>2021-03-25 11:21:54.641955</t>
+          <t>2021-03-25 11:28:00.762536</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
@@ -12131,12 +12131,12 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
+          <t>5d026f4756f03f9cb797de5a8f0c3c6d2b349ccb</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2021-03-25 11:21:54.641955</t>
+          <t>2021-03-25 11:28:00.762536</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -12223,12 +12223,12 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
+          <t>5d026f4756f03f9cb797de5a8f0c3c6d2b349ccb</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2021-03-25 11:21:54.641955</t>
+          <t>2021-03-25 11:28:00.762536</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -12315,12 +12315,12 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
+          <t>5d026f4756f03f9cb797de5a8f0c3c6d2b349ccb</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2021-03-25 11:21:54.641955</t>
+          <t>2021-03-25 11:28:00.762536</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -12407,12 +12407,12 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
+          <t>5d026f4756f03f9cb797de5a8f0c3c6d2b349ccb</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2021-03-25 11:21:54.641955</t>
+          <t>2021-03-25 11:28:00.762536</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -12499,12 +12499,12 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
+          <t>5d026f4756f03f9cb797de5a8f0c3c6d2b349ccb</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2021-03-25 11:21:54.641955</t>
+          <t>2021-03-25 11:28:00.762536</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
@@ -12591,12 +12591,12 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
+          <t>5d026f4756f03f9cb797de5a8f0c3c6d2b349ccb</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2021-03-25 11:21:54.641955</t>
+          <t>2021-03-25 11:28:00.762536</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
@@ -12683,12 +12683,12 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
+          <t>5d026f4756f03f9cb797de5a8f0c3c6d2b349ccb</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2021-03-25 11:21:54.641955</t>
+          <t>2021-03-25 11:28:00.762536</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
@@ -12775,12 +12775,12 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
+          <t>5d026f4756f03f9cb797de5a8f0c3c6d2b349ccb</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>2021-03-25 11:21:54.641955</t>
+          <t>2021-03-25 11:28:00.762536</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
@@ -12867,12 +12867,12 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
+          <t>5d026f4756f03f9cb797de5a8f0c3c6d2b349ccb</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>2021-03-25 11:21:54.641955</t>
+          <t>2021-03-25 11:28:00.762536</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
@@ -12959,12 +12959,12 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
+          <t>5d026f4756f03f9cb797de5a8f0c3c6d2b349ccb</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>2021-03-25 11:21:54.641955</t>
+          <t>2021-03-25 11:28:00.762536</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
@@ -13051,12 +13051,12 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
+          <t>5d026f4756f03f9cb797de5a8f0c3c6d2b349ccb</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>2021-03-25 11:21:54.641955</t>
+          <t>2021-03-25 11:28:00.762536</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
@@ -13143,12 +13143,12 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
+          <t>5d026f4756f03f9cb797de5a8f0c3c6d2b349ccb</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>2021-03-25 11:21:54.641955</t>
+          <t>2021-03-25 11:28:00.762536</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
@@ -13235,12 +13235,12 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
+          <t>5d026f4756f03f9cb797de5a8f0c3c6d2b349ccb</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>2021-03-25 11:21:54.641955</t>
+          <t>2021-03-25 11:28:00.762536</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
@@ -13327,12 +13327,12 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
+          <t>5d026f4756f03f9cb797de5a8f0c3c6d2b349ccb</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>2021-03-25 11:21:54.641955</t>
+          <t>2021-03-25 11:28:00.762536</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
@@ -13419,12 +13419,12 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
+          <t>5d026f4756f03f9cb797de5a8f0c3c6d2b349ccb</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>2021-03-25 11:21:54.641955</t>
+          <t>2021-03-25 11:28:00.762536</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
@@ -13511,12 +13511,12 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>f114ffc25e13fa8e4c6cf6c33dfea774f7600d71</t>
+          <t>5d026f4756f03f9cb797de5a8f0c3c6d2b349ccb</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>2021-03-25 11:21:54.641955</t>
+          <t>2021-03-25 11:28:00.762536</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
